--- a/hwdemo/log/floatingTargetTestConstantSpeed.xlsx
+++ b/hwdemo/log/floatingTargetTestConstantSpeed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bc699ec7811213b/Documents/GitHub/ELE492-RobotArm/hwdemo/log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielruoff/Documents/GitHub/ELE492-RobotArm/hwdemo/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2807FB60-7A88-4E3E-8269-4E61A928A607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB0663-EF55-7945-9989-4FEB79D2DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="1965" windowWidth="30570" windowHeight="16680"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,6 +611,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Floating Target</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -635,10 +638,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>arm!$A$1:$A$262</c:f>
+              <c:f>arm!$A$1:$A$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>69745000</c:v>
                 </c:pt>
@@ -1268,172 +1271,16 @@
                 </c:pt>
                 <c:pt idx="209">
                   <c:v>12938895500</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>13000983400</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13062646100</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>13124521900</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>13186160800</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>13246236200</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>13308280800</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>13371431500</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>13436286300</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>13495620400</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>13558153200</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>13621085600</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>13682596200</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>13743549400</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>13804664700</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>13866668300</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>13928704300</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>13988873500</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>14049695800</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>14110840400</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>14171814500</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>14233573700</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>14296590700</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>14358458700</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>14419780700</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>14480419800</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>14541890600</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>14602587500</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>14664187600</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>14725784100</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>14787433800</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>14849684200</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>14910421200</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>14972353000</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>15035333600</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>15097366700</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>15158362100</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>15220327900</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>15283547500</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>15345429800</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>15406957600</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>15469800200</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>15532556600</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>15593816200</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>15655335900</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>15716462200</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>15777665800</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>15838930200</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>15900714800</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15962626800</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>16025900900</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>16087314400</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>16148697500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>arm!$B$1:$B$262</c:f>
+              <c:f>arm!$B$1:$B$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2062,162 +1909,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2226,13 +1917,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F025-4E97-849E-33A8255D51F2}"/>
+              <c16:uniqueId val="{00000000-D382-A54B-868B-5035FC75B503}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Robotic Arm Elbow Position</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -3848,7 +3542,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F025-4E97-849E-33A8255D51F2}"/>
+              <c16:uniqueId val="{00000001-D382-A54B-868B-5035FC75B503}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4623,27 +4317,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641D7D2F-295F-0AD7-7A54-B6A2441CAAFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{259D14F8-B9FE-8E40-90C8-BD1DE3D2606E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4956,16 +4652,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>69745000</v>
       </c>
@@ -4976,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>70928100</v>
       </c>
@@ -4987,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>127805200</v>
       </c>
@@ -4998,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>189170800</v>
       </c>
@@ -5009,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>253319600</v>
       </c>
@@ -5020,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>315240700</v>
       </c>
@@ -5031,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>377305800</v>
       </c>
@@ -5042,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>441230800</v>
       </c>
@@ -5053,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>505272700</v>
       </c>
@@ -5064,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>569008300</v>
       </c>
@@ -5075,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>630232700</v>
       </c>
@@ -5086,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>691786000</v>
       </c>
@@ -5097,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>754797700</v>
       </c>
@@ -5108,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>817224400</v>
       </c>
@@ -5119,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>880281800</v>
       </c>
@@ -5130,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>941441300</v>
       </c>
@@ -5141,7 +4837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1003477900</v>
       </c>
@@ -5152,7 +4848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1063621700</v>
       </c>
@@ -5163,7 +4859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1125894400</v>
       </c>
@@ -5174,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1188797000</v>
       </c>
@@ -5185,7 +4881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1249799300</v>
       </c>
@@ -5196,7 +4892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1311505700</v>
       </c>
@@ -5207,7 +4903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1373048900</v>
       </c>
@@ -5218,7 +4914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1433946400</v>
       </c>
@@ -5229,7 +4925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1495939500</v>
       </c>
@@ -5240,7 +4936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1556893800</v>
       </c>
@@ -5251,7 +4947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1618661300</v>
       </c>
@@ -5262,7 +4958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1682177600</v>
       </c>
@@ -5273,7 +4969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1741889100</v>
       </c>
@@ -5284,7 +4980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1804053000</v>
       </c>
@@ -5295,7 +4991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1865551400</v>
       </c>
@@ -5306,7 +5002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1928210900</v>
       </c>
@@ -5317,7 +5013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1988757100</v>
       </c>
@@ -5328,7 +5024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2051356800</v>
       </c>
@@ -5339,7 +5035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2113341300</v>
       </c>
@@ -5350,7 +5046,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2175195600</v>
       </c>
@@ -5361,7 +5057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2236586800</v>
       </c>
@@ -5372,7 +5068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2298957500</v>
       </c>
@@ -5383,7 +5079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2361406900</v>
       </c>
@@ -5394,7 +5090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2421945400</v>
       </c>
@@ -5405,7 +5101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2483881000</v>
       </c>
@@ -5416,7 +5112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2546671300</v>
       </c>
@@ -5427,7 +5123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2607917000</v>
       </c>
@@ -5438,7 +5134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2668863300</v>
       </c>
@@ -5449,7 +5145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2732220100</v>
       </c>
@@ -5460,7 +5156,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2794809100</v>
       </c>
@@ -5471,7 +5167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2856791600</v>
       </c>
@@ -5482,7 +5178,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2918081300</v>
       </c>
@@ -5493,7 +5189,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2979993700</v>
       </c>
@@ -5504,7 +5200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3043341400</v>
       </c>
@@ -5515,7 +5211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3106300600</v>
       </c>
@@ -5526,7 +5222,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3168011500</v>
       </c>
@@ -5537,7 +5233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3229936300</v>
       </c>
@@ -5548,7 +5244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3291913800</v>
       </c>
@@ -5559,7 +5255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3353918800</v>
       </c>
@@ -5570,7 +5266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3417258600</v>
       </c>
@@ -5581,7 +5277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3479887500</v>
       </c>
@@ -5592,7 +5288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3541705400</v>
       </c>
@@ -5603,7 +5299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3602697900</v>
       </c>
@@ -5614,7 +5310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3662886000</v>
       </c>
@@ -5625,7 +5321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3724885700</v>
       </c>
@@ -5636,7 +5332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3788560200</v>
       </c>
@@ -5647,7 +5343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3849735000</v>
       </c>
@@ -5658,7 +5354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3912714700</v>
       </c>
@@ -5669,7 +5365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3975399200</v>
       </c>
@@ -5680,7 +5376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4037851000</v>
       </c>
@@ -5691,7 +5387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4099775000</v>
       </c>
@@ -5702,7 +5398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4160658900</v>
       </c>
@@ -5713,7 +5409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4223712300</v>
       </c>
@@ -5724,7 +5420,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4283734800</v>
       </c>
@@ -5735,7 +5431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4345483800</v>
       </c>
@@ -5746,7 +5442,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4405949000</v>
       </c>
@@ -5757,7 +5453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4468731600</v>
       </c>
@@ -5768,7 +5464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4530903400</v>
       </c>
@@ -5779,7 +5475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4591711000</v>
       </c>
@@ -5790,7 +5486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4652826200</v>
       </c>
@@ -5801,7 +5497,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4715155900</v>
       </c>
@@ -5812,7 +5508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4776397800</v>
       </c>
@@ -5823,7 +5519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4839695000</v>
       </c>
@@ -5834,7 +5530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4900702000</v>
       </c>
@@ -5845,7 +5541,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4962833700</v>
       </c>
@@ -5856,7 +5552,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5023849900</v>
       </c>
@@ -5867,7 +5563,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5086849900</v>
       </c>
@@ -5878,7 +5574,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5149726200</v>
       </c>
@@ -5889,7 +5585,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5212047400</v>
       </c>
@@ -5900,7 +5596,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5273702500</v>
       </c>
@@ -5911,7 +5607,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5337131100</v>
       </c>
@@ -5922,7 +5618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5399714200</v>
       </c>
@@ -5933,7 +5629,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5460123400</v>
       </c>
@@ -5944,7 +5640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5521629400</v>
       </c>
@@ -5955,7 +5651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5581811900</v>
       </c>
@@ -5966,7 +5662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5643971800</v>
       </c>
@@ -5977,7 +5673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5705293900</v>
       </c>
@@ -5988,7 +5684,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5768584700</v>
       </c>
@@ -5999,7 +5695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5828938600</v>
       </c>
@@ -6010,7 +5706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5891251200</v>
       </c>
@@ -6021,7 +5717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5952785600</v>
       </c>
@@ -6032,7 +5728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6013950900</v>
       </c>
@@ -6043,7 +5739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6077339900</v>
       </c>
@@ -6054,7 +5750,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6138766400</v>
       </c>
@@ -6065,7 +5761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6200840100</v>
       </c>
@@ -6076,7 +5772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6262799100</v>
       </c>
@@ -6087,7 +5783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6325765000</v>
       </c>
@@ -6098,7 +5794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6387441900</v>
       </c>
@@ -6109,7 +5805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6449712600</v>
       </c>
@@ -6120,7 +5816,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6510686700</v>
       </c>
@@ -6131,7 +5827,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6571469700</v>
       </c>
@@ -6142,7 +5838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>6633598500</v>
       </c>
@@ -6153,7 +5849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6696402300</v>
       </c>
@@ -6164,7 +5860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>6758328800</v>
       </c>
@@ -6175,7 +5871,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6820835800</v>
       </c>
@@ -6186,7 +5882,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6882859100</v>
       </c>
@@ -6197,7 +5893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6945230800</v>
       </c>
@@ -6208,7 +5904,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7007411800</v>
       </c>
@@ -6219,7 +5915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7069400100</v>
       </c>
@@ -6230,7 +5926,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7130666100</v>
       </c>
@@ -6241,7 +5937,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7191731500</v>
       </c>
@@ -6252,7 +5948,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7254754600</v>
       </c>
@@ -6263,7 +5959,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7316489800</v>
       </c>
@@ -6274,7 +5970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7378357800</v>
       </c>
@@ -6285,7 +5981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7440396700</v>
       </c>
@@ -6296,7 +5992,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7501724500</v>
       </c>
@@ -6307,7 +6003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7562759000</v>
       </c>
@@ -6318,7 +6014,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7623372800</v>
       </c>
@@ -6329,7 +6025,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7686112500</v>
       </c>
@@ -6340,7 +6036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7747092500</v>
       </c>
@@ -6351,7 +6047,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7807439400</v>
       </c>
@@ -6362,7 +6058,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7869408800</v>
       </c>
@@ -6373,7 +6069,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7932375500</v>
       </c>
@@ -6384,7 +6080,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7993751000</v>
       </c>
@@ -6395,7 +6091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8055740300</v>
       </c>
@@ -6406,7 +6102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>8118355600</v>
       </c>
@@ -6417,7 +6113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8180405700</v>
       </c>
@@ -6428,7 +6124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8241732300</v>
       </c>
@@ -6439,7 +6135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8302708100</v>
       </c>
@@ -6450,7 +6146,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8363882500</v>
       </c>
@@ -6461,7 +6157,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8426508400</v>
       </c>
@@ -6472,7 +6168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>8488331300</v>
       </c>
@@ -6483,7 +6179,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>8550711600</v>
       </c>
@@ -6494,7 +6190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>8613654800</v>
       </c>
@@ -6505,7 +6201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8675987400</v>
       </c>
@@ -6516,7 +6212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>8736632900</v>
       </c>
@@ -6527,7 +6223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>8799697500</v>
       </c>
@@ -6538,7 +6234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>8862733500</v>
       </c>
@@ -6549,7 +6245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>8923809000</v>
       </c>
@@ -6560,7 +6256,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>8985057600</v>
       </c>
@@ -6571,7 +6267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9046947700</v>
       </c>
@@ -6582,7 +6278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9108355500</v>
       </c>
@@ -6593,7 +6289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>9171157700</v>
       </c>
@@ -6604,7 +6300,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9231383200</v>
       </c>
@@ -6615,7 +6311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9293891800</v>
       </c>
@@ -6626,7 +6322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>9356335200</v>
       </c>
@@ -6637,7 +6333,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>9418062400</v>
       </c>
@@ -6648,7 +6344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>9479279200</v>
       </c>
@@ -6659,7 +6355,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9541487700</v>
       </c>
@@ -6670,7 +6366,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>9601463700</v>
       </c>
@@ -6681,7 +6377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>9662461000</v>
       </c>
@@ -6692,7 +6388,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9723305100</v>
       </c>
@@ -6703,7 +6399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9785880100</v>
       </c>
@@ -6714,7 +6410,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9849865000</v>
       </c>
@@ -6725,7 +6421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9909720800</v>
       </c>
@@ -6736,7 +6432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9971700700</v>
       </c>
@@ -6747,7 +6443,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10031753600</v>
       </c>
@@ -6758,7 +6454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10094629500</v>
       </c>
@@ -6769,7 +6465,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10155747700</v>
       </c>
@@ -6780,7 +6476,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10218256000</v>
       </c>
@@ -6791,7 +6487,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10280833900</v>
       </c>
@@ -6802,7 +6498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10343683400</v>
       </c>
@@ -6813,7 +6509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10404877000</v>
       </c>
@@ -6824,7 +6520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10467631000</v>
       </c>
@@ -6835,7 +6531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10529201700</v>
       </c>
@@ -6846,7 +6542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10590967200</v>
       </c>
@@ -6857,7 +6553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10651446100</v>
       </c>
@@ -6868,7 +6564,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10712658700</v>
       </c>
@@ -6879,7 +6575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10775693600</v>
       </c>
@@ -6890,7 +6586,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10838341500</v>
       </c>
@@ -6901,7 +6597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10900748600</v>
       </c>
@@ -6912,7 +6608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10961570700</v>
       </c>
@@ -6923,7 +6619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>11023993300</v>
       </c>
@@ -6934,7 +6630,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11085338400</v>
       </c>
@@ -6945,7 +6641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>11147451600</v>
       </c>
@@ -6956,7 +6652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>11209705800</v>
       </c>
@@ -6967,7 +6663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>11271595900</v>
       </c>
@@ -6978,7 +6674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>11333844800</v>
       </c>
@@ -6989,7 +6685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>11396816500</v>
       </c>
@@ -7000,7 +6696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>11458446200</v>
       </c>
@@ -7011,7 +6707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>11519691300</v>
       </c>
@@ -7022,7 +6718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>11580030400</v>
       </c>
@@ -7033,7 +6729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>11641067300</v>
       </c>
@@ -7044,7 +6740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>11703878500</v>
       </c>
@@ -7055,7 +6751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>11764441000</v>
       </c>
@@ -7066,7 +6762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>11824718800</v>
       </c>
@@ -7077,7 +6773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>11886697700</v>
       </c>
@@ -7088,7 +6784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>11949711500</v>
       </c>
@@ -7099,7 +6795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>12011308300</v>
       </c>
@@ -7110,7 +6806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>12072692500</v>
       </c>
@@ -7121,7 +6817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>12135687900</v>
       </c>
@@ -7132,7 +6828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12198717300</v>
       </c>
@@ -7143,7 +6839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>12258487000</v>
       </c>
@@ -7154,7 +6850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>12319712900</v>
       </c>
@@ -7165,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>12381721300</v>
       </c>
@@ -7176,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>12443635400</v>
       </c>
@@ -7187,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>12504804400</v>
       </c>
@@ -7198,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>12564430100</v>
       </c>
@@ -7209,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>12627049100</v>
       </c>
@@ -7220,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>12689015400</v>
       </c>
@@ -7231,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>12751226000</v>
       </c>
@@ -7242,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>12812624700</v>
       </c>
@@ -7253,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>12875424900</v>
       </c>
@@ -7264,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>12938895500</v>
       </c>
@@ -7275,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>13000983400</v>
       </c>
@@ -7286,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>13062646100</v>
       </c>
@@ -7297,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>13124521900</v>
       </c>
@@ -7308,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>13186160800</v>
       </c>
@@ -7319,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>13246236200</v>
       </c>
@@ -7330,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>13308280800</v>
       </c>
@@ -7341,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>13371431500</v>
       </c>
@@ -7352,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>13436286300</v>
       </c>
@@ -7363,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>13495620400</v>
       </c>
@@ -7374,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>13558153200</v>
       </c>
@@ -7385,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>13621085600</v>
       </c>
@@ -7396,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>13682596200</v>
       </c>
@@ -7407,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>13743549400</v>
       </c>
@@ -7418,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>13804664700</v>
       </c>
@@ -7429,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>13866668300</v>
       </c>
@@ -7440,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>13928704300</v>
       </c>
@@ -7451,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>13988873500</v>
       </c>
@@ -7462,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>14049695800</v>
       </c>
@@ -7473,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>14110840400</v>
       </c>
@@ -7484,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>14171814500</v>
       </c>
@@ -7495,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>14233573700</v>
       </c>
@@ -7506,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>14296590700</v>
       </c>
@@ -7517,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>14358458700</v>
       </c>
@@ -7528,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>14419780700</v>
       </c>
@@ -7539,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>14480419800</v>
       </c>
@@ -7550,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>14541890600</v>
       </c>
@@ -7561,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>14602587500</v>
       </c>
@@ -7572,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>14664187600</v>
       </c>
@@ -7583,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>14725784100</v>
       </c>
@@ -7594,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>14787433800</v>
       </c>
@@ -7605,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>14849684200</v>
       </c>
@@ -7616,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>14910421200</v>
       </c>
@@ -7627,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>14972353000</v>
       </c>
@@ -7638,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>15035333600</v>
       </c>
@@ -7649,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>15097366700</v>
       </c>
@@ -7660,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>15158362100</v>
       </c>
@@ -7671,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>15220327900</v>
       </c>
@@ -7682,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>15283547500</v>
       </c>
@@ -7693,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>15345429800</v>
       </c>
@@ -7704,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>15406957600</v>
       </c>
@@ -7715,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>15469800200</v>
       </c>
@@ -7726,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>15532556600</v>
       </c>
@@ -7737,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>15593816200</v>
       </c>
@@ -7748,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>15655335900</v>
       </c>
@@ -7759,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>15716462200</v>
       </c>
@@ -7770,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>15777665800</v>
       </c>
@@ -7781,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>15838930200</v>
       </c>
@@ -7792,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>15900714800</v>
       </c>
@@ -7803,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>15962626800</v>
       </c>
@@ -7814,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>16025900900</v>
       </c>
@@ -7825,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>16087314400</v>
       </c>
@@ -7836,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>16148697500</v>
       </c>

--- a/hwdemo/log/floatingTargetTestConstantSpeed.xlsx
+++ b/hwdemo/log/floatingTargetTestConstantSpeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielruoff/Documents/GitHub/ELE492-RobotArm/hwdemo/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB0663-EF55-7945-9989-4FEB79D2DCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D248757-9381-DE42-B669-9CD1424A0504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,6 +573,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Elbow Target Position vs. Robotic Arm Elbow Position</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -612,7 +637,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Floating Target</c:v>
+            <c:v>Elbow Target Position</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -638,10 +663,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>arm!$A$1:$A$210</c:f>
+              <c:f>arm!$A$1:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="210"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>69745000</c:v>
                 </c:pt>
@@ -1241,46 +1266,16 @@
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>12319712900</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12381721300</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>12443635400</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12504804400</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12564430100</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>12627049100</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>12689015400</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>12751226000</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>12812624700</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12875424900</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>12938895500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>arm!$B$1:$B$210</c:f>
+              <c:f>arm!$B$1:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="210"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1879,36 +1874,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1951,10 +1916,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>arm!$A$1:$A$262</c:f>
+              <c:f>arm!$A$1:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>69745000</c:v>
                 </c:pt>
@@ -2554,202 +2519,16 @@
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>12319712900</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12381721300</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>12443635400</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12504804400</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12564430100</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>12627049100</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>12689015400</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>12751226000</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>12812624700</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12875424900</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>12938895500</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>13000983400</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13062646100</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>13124521900</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>13186160800</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>13246236200</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>13308280800</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>13371431500</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>13436286300</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>13495620400</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>13558153200</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>13621085600</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>13682596200</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>13743549400</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>13804664700</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>13866668300</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>13928704300</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>13988873500</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>14049695800</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>14110840400</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>14171814500</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>14233573700</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>14296590700</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>14358458700</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>14419780700</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>14480419800</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>14541890600</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>14602587500</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>14664187600</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>14725784100</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>14787433800</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>14849684200</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>14910421200</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>14972353000</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>15035333600</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>15097366700</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>15158362100</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>15220327900</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>15283547500</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>15345429800</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>15406957600</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>15469800200</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>15532556600</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>15593816200</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>15655335900</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>15716462200</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>15777665800</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>15838930200</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>15900714800</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15962626800</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>16025900900</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>16087314400</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>16148697500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>arm!$C$1:$C$262</c:f>
+              <c:f>arm!$C$1:$C$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="262"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3349,192 +3128,6 @@
                 </c:pt>
                 <c:pt idx="199">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,7 +4249,7 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
